--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1802,28 +1802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.1855028592294</v>
+        <v>206.8435291861032</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.0140924819579</v>
+        <v>283.0124419247726</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.4436247083159</v>
+        <v>256.0021316780123</v>
       </c>
       <c r="AD2" t="n">
-        <v>165185.5028592294</v>
+        <v>206843.5291861032</v>
       </c>
       <c r="AE2" t="n">
-        <v>226014.0924819579</v>
+        <v>283012.4419247726</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.247740575986305e-06</v>
+        <v>3.799916968053249e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.010416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>204443.6247083159</v>
+        <v>256002.1316780124</v>
       </c>
     </row>
     <row r="3">
@@ -1908,28 +1908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>124.3650246243274</v>
+        <v>165.852369242058</v>
       </c>
       <c r="AB3" t="n">
-        <v>170.1617132885924</v>
+        <v>226.9265284870119</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.921718195841</v>
+        <v>205.2689791016599</v>
       </c>
       <c r="AD3" t="n">
-        <v>124365.0246243274</v>
+        <v>165852.369242058</v>
       </c>
       <c r="AE3" t="n">
-        <v>170161.7132885924</v>
+        <v>226926.5284870119</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.754064576217825e-06</v>
+        <v>4.655882812318043e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.361111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>153921.718195841</v>
+        <v>205268.9791016599</v>
       </c>
     </row>
     <row r="4">
@@ -2014,28 +2014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.17229995872</v>
+        <v>150.4158420810131</v>
       </c>
       <c r="AB4" t="n">
-        <v>163.0567983142678</v>
+        <v>205.8055910137659</v>
       </c>
       <c r="AC4" t="n">
-        <v>147.4948863348529</v>
+        <v>186.1637942574319</v>
       </c>
       <c r="AD4" t="n">
-        <v>119172.29995872</v>
+        <v>150415.8420810131</v>
       </c>
       <c r="AE4" t="n">
-        <v>163056.7983142678</v>
+        <v>205805.5910137659</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.887414613711956e-06</v>
+        <v>4.881317667024145e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.013888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>147494.8863348528</v>
+        <v>186163.7942574319</v>
       </c>
     </row>
   </sheetData>
@@ -2311,28 +2311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.5443323623489</v>
+        <v>177.8213523917683</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.1942235657665</v>
+        <v>243.3030192667071</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.2332310009544</v>
+        <v>220.0825205858953</v>
       </c>
       <c r="AD2" t="n">
-        <v>137544.3323623489</v>
+        <v>177821.3523917683</v>
       </c>
       <c r="AE2" t="n">
-        <v>188194.2235657665</v>
+        <v>243303.0192667071</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.578745755858434e-06</v>
+        <v>4.465848710580831e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>170233.2310009544</v>
+        <v>220082.5205858953</v>
       </c>
     </row>
     <row r="3">
@@ -2417,28 +2417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.6772389992737</v>
+        <v>142.9541695201421</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.4875281988345</v>
+        <v>195.5962014302267</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.0795956830597</v>
+        <v>176.9287744867741</v>
       </c>
       <c r="AD3" t="n">
-        <v>102677.2389992737</v>
+        <v>142954.1695201421</v>
       </c>
       <c r="AE3" t="n">
-        <v>140487.5281988345</v>
+        <v>195596.2014302267</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.046969836833853e-06</v>
+        <v>5.276714963501099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>127079.5956830597</v>
+        <v>176928.7744867741</v>
       </c>
     </row>
     <row r="4">
@@ -2523,28 +2523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.8451581107512</v>
+        <v>143.1220886316196</v>
       </c>
       <c r="AB4" t="n">
-        <v>140.7172825352262</v>
+        <v>195.8259557666185</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.2874225880486</v>
+        <v>177.1366013917629</v>
       </c>
       <c r="AD4" t="n">
-        <v>102845.1581107512</v>
+        <v>143122.0886316196</v>
       </c>
       <c r="AE4" t="n">
-        <v>140717.2825352262</v>
+        <v>195825.9557666185</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.044192993488375e-06</v>
+        <v>5.271906051166211e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.883680555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>127287.4225880486</v>
+        <v>177136.6013917629</v>
       </c>
     </row>
   </sheetData>
@@ -2820,28 +2820,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.38838401688622</v>
+        <v>125.734570363583</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.6193276010068</v>
+        <v>172.0355861891347</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.7714479142156</v>
+        <v>155.6167512967533</v>
       </c>
       <c r="AD2" t="n">
-        <v>98388.38401688622</v>
+        <v>125734.570363583</v>
       </c>
       <c r="AE2" t="n">
-        <v>134619.3276010068</v>
+        <v>172035.5861891347</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.315828550101794e-06</v>
+        <v>6.274261149008353e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.057291666666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>121771.4479142156</v>
+        <v>155616.7512967533</v>
       </c>
     </row>
   </sheetData>
@@ -3117,28 +3117,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.20755324195395</v>
+        <v>132.1087355032716</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.8989304895111</v>
+        <v>180.7570001415717</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.5969974744114</v>
+        <v>163.5058057421538</v>
       </c>
       <c r="AD2" t="n">
-        <v>94207.55324195395</v>
+        <v>132108.7355032717</v>
       </c>
       <c r="AE2" t="n">
-        <v>128898.9304895111</v>
+        <v>180757.0001415717</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.227773444628477e-06</v>
+        <v>5.880302225125121e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.935763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>116596.9974744114</v>
+        <v>163505.8057421538</v>
       </c>
     </row>
     <row r="3">
@@ -3223,28 +3223,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.12868326009647</v>
+        <v>132.0298655214142</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.7910171008357</v>
+        <v>180.6490867528963</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.4993831880938</v>
+        <v>163.4081914558362</v>
       </c>
       <c r="AD3" t="n">
-        <v>94128.68326009647</v>
+        <v>132029.8655214142</v>
       </c>
       <c r="AE3" t="n">
-        <v>128791.0171008357</v>
+        <v>180649.0867528963</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.242775314465836e-06</v>
+        <v>5.907632373941006e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.901041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>116499.3831880938</v>
+        <v>163408.1914558362</v>
       </c>
     </row>
   </sheetData>
@@ -3520,28 +3520,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.63993019599033</v>
+        <v>129.6799378636669</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.4905277131483</v>
+        <v>177.4338120600766</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.1321334893369</v>
+        <v>160.4997780670318</v>
       </c>
       <c r="AD2" t="n">
-        <v>94639.93019599032</v>
+        <v>129679.9378636669</v>
       </c>
       <c r="AE2" t="n">
-        <v>129490.5277131483</v>
+        <v>177433.8120600766</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.313503550487219e-06</v>
+        <v>6.493399346561358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.335069444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>117132.1334893368</v>
+        <v>160499.7780670318</v>
       </c>
     </row>
   </sheetData>
@@ -3817,28 +3817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.3864674588315</v>
+        <v>182.0040420728747</v>
       </c>
       <c r="AB2" t="n">
-        <v>193.4512023078088</v>
+        <v>249.0259598156394</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.9884910700739</v>
+        <v>225.2592717210369</v>
       </c>
       <c r="AD2" t="n">
-        <v>141386.4674588315</v>
+        <v>182004.0420728747</v>
       </c>
       <c r="AE2" t="n">
-        <v>193451.2023078088</v>
+        <v>249025.9598156394</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.497432242008852e-06</v>
+        <v>4.296785238854639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.315972222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>174988.4910700739</v>
+        <v>225259.2717210369</v>
       </c>
     </row>
     <row r="3">
@@ -3923,28 +3923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.6816873499594</v>
+        <v>145.2991724554516</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.2301028622614</v>
+        <v>198.8047379005437</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.5604228698378</v>
+        <v>179.8310927395742</v>
       </c>
       <c r="AD3" t="n">
-        <v>104681.6873499594</v>
+        <v>145299.1724554516</v>
       </c>
       <c r="AE3" t="n">
-        <v>143230.1028622614</v>
+        <v>198804.7379005437</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.990476853418223e-06</v>
+        <v>5.145059227139722e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>129560.4228698378</v>
+        <v>179831.0927395742</v>
       </c>
     </row>
     <row r="4">
@@ -4029,28 +4029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.2663571030598</v>
+        <v>144.883842208552</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.6618296953763</v>
+        <v>198.2364647336585</v>
       </c>
       <c r="AC4" t="n">
-        <v>129.0463848964236</v>
+        <v>179.31705476616</v>
       </c>
       <c r="AD4" t="n">
-        <v>104266.3571030598</v>
+        <v>144883.842208552</v>
       </c>
       <c r="AE4" t="n">
-        <v>142661.8296953763</v>
+        <v>198236.4647336585</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.004643151707601e-06</v>
+        <v>5.169432077123453e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.909722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>129046.3848964236</v>
+        <v>179317.05476616</v>
       </c>
     </row>
   </sheetData>
@@ -4326,28 +4326,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.54982137138092</v>
+        <v>127.0197233030655</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.6307486102256</v>
+        <v>173.7939891378801</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.545287690271</v>
+        <v>157.207334736005</v>
       </c>
       <c r="AD2" t="n">
-        <v>92549.82137138091</v>
+        <v>127019.7233030655</v>
       </c>
       <c r="AE2" t="n">
-        <v>126630.7486102256</v>
+        <v>173793.9891378802</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.266461877770636e-06</v>
+        <v>6.548146698061252e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.612847222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>114545.287690271</v>
+        <v>157207.334736005</v>
       </c>
     </row>
   </sheetData>
@@ -4623,28 +4623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.0622144095653</v>
+        <v>154.1486291862323</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.43319794174</v>
+        <v>210.912955010069</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.4079944891046</v>
+        <v>190.7837186021598</v>
       </c>
       <c r="AD2" t="n">
-        <v>115062.2144095653</v>
+        <v>154148.6291862323</v>
       </c>
       <c r="AE2" t="n">
-        <v>157433.19794174</v>
+        <v>210912.955010069</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.891435322510651e-06</v>
+        <v>5.120946809761358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.465277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>142407.9944891046</v>
+        <v>190783.7186021598</v>
       </c>
     </row>
     <row r="3">
@@ -4729,28 +4729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.46607975295568</v>
+        <v>137.6377458756433</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.725634334791</v>
+        <v>188.3220360557692</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.8676088825299</v>
+        <v>170.3488452462973</v>
       </c>
       <c r="AD3" t="n">
-        <v>98466.07975295567</v>
+        <v>137637.7458756433</v>
       </c>
       <c r="AE3" t="n">
-        <v>134725.634334791</v>
+        <v>188322.0360557692</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.150045667945704e-06</v>
+        <v>5.578964948059882e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.857638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>121867.6088825299</v>
+        <v>170348.8452462973</v>
       </c>
     </row>
   </sheetData>
@@ -5026,28 +5026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.9252226881668</v>
+        <v>162.9339894634688</v>
       </c>
       <c r="AB2" t="n">
-        <v>168.19171275996</v>
+        <v>222.9334725241191</v>
       </c>
       <c r="AC2" t="n">
-        <v>152.1397317527476</v>
+        <v>201.6570147955751</v>
       </c>
       <c r="AD2" t="n">
-        <v>122925.2226881668</v>
+        <v>162933.9894634688</v>
       </c>
       <c r="AE2" t="n">
-        <v>168191.71275996</v>
+        <v>222933.4725241191</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.68358242460981e-06</v>
+        <v>4.679933420237362e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.881944444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>152139.7317527476</v>
+        <v>201657.0147955751</v>
       </c>
     </row>
     <row r="3">
@@ -5132,28 +5132,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.0980817478136</v>
+        <v>141.021507668544</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.3268555798867</v>
+        <v>192.9518482218481</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.1251346263406</v>
+        <v>174.5367946372293</v>
       </c>
       <c r="AD3" t="n">
-        <v>101098.0817478136</v>
+        <v>141021.507668544</v>
       </c>
       <c r="AE3" t="n">
-        <v>138326.8555798867</v>
+        <v>192951.8482218481</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.081639513170997e-06</v>
+        <v>5.37411022465981e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.866319444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>125125.1346263406</v>
+        <v>174536.7946372293</v>
       </c>
     </row>
   </sheetData>
@@ -5429,28 +5429,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.6063392635984</v>
+        <v>202.2081250282729</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.0662376631216</v>
+        <v>276.6700774564337</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.399565156393</v>
+        <v>250.2650735729654</v>
       </c>
       <c r="AD2" t="n">
-        <v>150606.3392635984</v>
+        <v>202208.1250282729</v>
       </c>
       <c r="AE2" t="n">
-        <v>206066.2376631216</v>
+        <v>276670.0774564337</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.318176760580541e-06</v>
+        <v>3.940746852625894e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.810763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>186399.565156393</v>
+        <v>250265.0735729654</v>
       </c>
     </row>
     <row r="3">
@@ -5535,28 +5535,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.8745137847346</v>
+        <v>151.8868792648333</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.3858423673938</v>
+        <v>207.818328986248</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.6016496923831</v>
+        <v>187.9844393427164</v>
       </c>
       <c r="AD3" t="n">
-        <v>120874.5137847346</v>
+        <v>151886.8792648333</v>
       </c>
       <c r="AE3" t="n">
-        <v>165385.8423673938</v>
+        <v>207818.328986248</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.844241576570111e-06</v>
+        <v>4.835022174137163e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.178819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>149601.6496923831</v>
+        <v>187984.4393427164</v>
       </c>
     </row>
     <row r="4">
@@ -5641,28 +5641,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.9679368325379</v>
+        <v>148.2322972733631</v>
       </c>
       <c r="AB4" t="n">
-        <v>146.3582502665324</v>
+        <v>202.8179686767425</v>
       </c>
       <c r="AC4" t="n">
-        <v>132.3900242762286</v>
+        <v>183.4613064030987</v>
       </c>
       <c r="AD4" t="n">
-        <v>106967.9368325379</v>
+        <v>148232.2972733631</v>
       </c>
       <c r="AE4" t="n">
-        <v>146358.2502665324</v>
+        <v>202817.9686767425</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.938965712227967e-06</v>
+        <v>4.996046926782826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>132390.0242762286</v>
+        <v>183461.3064030987</v>
       </c>
     </row>
   </sheetData>
@@ -5938,28 +5938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>107.0259171131441</v>
+        <v>135.8504457051568</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.4375814443673</v>
+        <v>185.8765731123922</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.4617841977929</v>
+        <v>168.1367738540066</v>
       </c>
       <c r="AD2" t="n">
-        <v>107025.9171131441</v>
+        <v>135850.4457051568</v>
       </c>
       <c r="AE2" t="n">
-        <v>146437.5814443672</v>
+        <v>185876.5731123922</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.136112595442795e-06</v>
+        <v>5.655153139087517e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.048611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>132461.7841977929</v>
+        <v>168136.7738540066</v>
       </c>
     </row>
     <row r="3">
@@ -6044,28 +6044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.5543727992512</v>
+        <v>133.901617389295</v>
       </c>
       <c r="AB3" t="n">
-        <v>130.7417084252896</v>
+        <v>183.2101002343941</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.263903270355</v>
+        <v>165.7247854050656</v>
       </c>
       <c r="AD3" t="n">
-        <v>95554.3727992512</v>
+        <v>133901.617389295</v>
       </c>
       <c r="AE3" t="n">
-        <v>130741.7084252896</v>
+        <v>183210.1002343941</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.217030246414426e-06</v>
+        <v>5.801066812137637e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.866319444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>118263.903270355</v>
+        <v>165724.7854050656</v>
       </c>
     </row>
   </sheetData>
@@ -6341,28 +6341,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.6030819626575</v>
+        <v>127.5246231059904</v>
       </c>
       <c r="AB2" t="n">
-        <v>123.9671338671302</v>
+        <v>174.4848153228487</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.135884599849</v>
+        <v>157.8322294394611</v>
       </c>
       <c r="AD2" t="n">
-        <v>90603.0819626575</v>
+        <v>127524.6231059904</v>
       </c>
       <c r="AE2" t="n">
-        <v>123967.1338671302</v>
+        <v>174484.8153228487</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.305235664697037e-06</v>
+        <v>6.166513255747436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.961805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>112135.884599849</v>
+        <v>157832.2294394611</v>
       </c>
     </row>
   </sheetData>
@@ -10419,28 +10419,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.4719705234364</v>
+        <v>123.3725279714652</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.9972061130737</v>
+        <v>168.8037355822849</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.3995780209194</v>
+        <v>152.6933439758893</v>
       </c>
       <c r="AD2" t="n">
-        <v>96471.97052343639</v>
+        <v>123372.5279714652</v>
       </c>
       <c r="AE2" t="n">
-        <v>131997.2061130737</v>
+        <v>168803.7355822849</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.324597383169766e-06</v>
+        <v>6.393324055900764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.161458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>119399.5780209194</v>
+        <v>152693.3439758894</v>
       </c>
     </row>
   </sheetData>
@@ -10716,28 +10716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.42403556722454</v>
+        <v>132.947051221614</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.0363517419008</v>
+        <v>181.9040206912864</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.053233259909</v>
+        <v>164.5433562604576</v>
       </c>
       <c r="AD2" t="n">
-        <v>99424.03556722454</v>
+        <v>132947.051221614</v>
       </c>
       <c r="AE2" t="n">
-        <v>136036.3517419008</v>
+        <v>181904.0206912864</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.125021276147117e-06</v>
+        <v>6.445666763425176e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.177083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>123053.233259909</v>
+        <v>164543.3562604576</v>
       </c>
     </row>
   </sheetData>
@@ -11013,28 +11013,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.6441963440759</v>
+        <v>158.285100224825</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.334223650425</v>
+        <v>216.5726571732914</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.8412731827871</v>
+        <v>195.9032667343679</v>
       </c>
       <c r="AD2" t="n">
-        <v>118644.1963440759</v>
+        <v>158285.100224825</v>
       </c>
       <c r="AE2" t="n">
-        <v>162334.223650425</v>
+        <v>216572.6571732914</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.797819544117034e-06</v>
+        <v>4.915658571255726e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.638888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>146841.2731827871</v>
+        <v>195903.2667343679</v>
       </c>
     </row>
     <row r="3">
@@ -11119,28 +11119,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.0058792036657</v>
+        <v>139.5614422298431</v>
       </c>
       <c r="AB3" t="n">
-        <v>136.8324558744088</v>
+        <v>190.9541222750775</v>
       </c>
       <c r="AC3" t="n">
-        <v>123.7733583313499</v>
+        <v>172.7297288509919</v>
       </c>
       <c r="AD3" t="n">
-        <v>100005.8792036657</v>
+        <v>139561.4422298431</v>
       </c>
       <c r="AE3" t="n">
-        <v>136832.4558744088</v>
+        <v>190954.1222750775</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.101398376246377e-06</v>
+        <v>5.449034603797298e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.892361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>123773.3583313499</v>
+        <v>172729.7288509919</v>
       </c>
     </row>
   </sheetData>
@@ -11416,28 +11416,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.4985359645008</v>
+        <v>186.6155039087341</v>
       </c>
       <c r="AB2" t="n">
-        <v>199.0775158489218</v>
+        <v>255.3355653427969</v>
       </c>
       <c r="AC2" t="n">
-        <v>180.0778371434055</v>
+        <v>230.9666973522715</v>
       </c>
       <c r="AD2" t="n">
-        <v>145498.5359645008</v>
+        <v>186615.5039087341</v>
       </c>
       <c r="AE2" t="n">
-        <v>199077.5158489218</v>
+        <v>255335.5653427969</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.415723756087933e-06</v>
+        <v>4.130618408868068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.524305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>180077.8371434055</v>
+        <v>230966.6973522715</v>
       </c>
     </row>
     <row r="3">
@@ -11522,28 +11522,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.909503745101</v>
+        <v>148.6833135708983</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.3289848241581</v>
+        <v>203.4350690724646</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.9319729392372</v>
+        <v>184.0195116031591</v>
       </c>
       <c r="AD3" t="n">
-        <v>117909.503745101</v>
+        <v>148683.3135708983</v>
       </c>
       <c r="AE3" t="n">
-        <v>161328.9848241581</v>
+        <v>203435.0690724646</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.91646208010561e-06</v>
+        <v>4.986825139459938e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.057291666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>145931.9729392372</v>
+        <v>184019.5116031591</v>
       </c>
     </row>
     <row r="4">
@@ -11628,28 +11628,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.7202104822674</v>
+        <v>146.6664967173574</v>
       </c>
       <c r="AB4" t="n">
-        <v>144.6510560282915</v>
+        <v>200.6755712777714</v>
       </c>
       <c r="AC4" t="n">
-        <v>130.8457622600227</v>
+        <v>181.523376405011</v>
       </c>
       <c r="AD4" t="n">
-        <v>105720.2104822674</v>
+        <v>146666.4967173574</v>
       </c>
       <c r="AE4" t="n">
-        <v>144651.0560282915</v>
+        <v>200675.5712777714</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.965783867931107e-06</v>
+        <v>5.07115990010335e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>130845.7622600227</v>
+        <v>181523.376405011</v>
       </c>
     </row>
   </sheetData>
@@ -11925,28 +11925,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>105.7584769675202</v>
+        <v>146.2775271006637</v>
       </c>
       <c r="AB2" t="n">
-        <v>144.7034139216126</v>
+        <v>200.143365888083</v>
       </c>
       <c r="AC2" t="n">
-        <v>130.8931231894901</v>
+        <v>181.0419639507594</v>
       </c>
       <c r="AD2" t="n">
-        <v>105758.4769675202</v>
+        <v>146277.5271006637</v>
       </c>
       <c r="AE2" t="n">
-        <v>144703.4139216126</v>
+        <v>200143.365888083</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.807609546952473e-06</v>
+        <v>6.018000417295864e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>130893.1231894901</v>
+        <v>181041.9639507594</v>
       </c>
     </row>
   </sheetData>
@@ -12222,28 +12222,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.33427205363918</v>
+        <v>129.7619070993846</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.3358245243267</v>
+        <v>177.545965984613</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.2785107452017</v>
+        <v>160.6012281784195</v>
       </c>
       <c r="AD2" t="n">
-        <v>92334.27205363919</v>
+        <v>129761.9070993847</v>
       </c>
       <c r="AE2" t="n">
-        <v>126335.8245243267</v>
+        <v>177545.965984613</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.269731191372909e-06</v>
+        <v>6.024259128029899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.935763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>114278.5107452017</v>
+        <v>160601.2281784195</v>
       </c>
     </row>
   </sheetData>
@@ -12519,28 +12519,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.3538772600114</v>
+        <v>139.4952594912692</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.9910433365484</v>
+        <v>190.8635681323844</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.5806700778097</v>
+        <v>172.6478170685838</v>
       </c>
       <c r="AD2" t="n">
-        <v>110353.8772600114</v>
+        <v>139495.2594912692</v>
       </c>
       <c r="AE2" t="n">
-        <v>150991.0433365484</v>
+        <v>190863.5681323844</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.032007394021917e-06</v>
+        <v>5.41645993873385e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.204861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>136580.6700778097</v>
+        <v>172647.8170685838</v>
       </c>
     </row>
     <row r="3">
@@ -12625,28 +12625,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>97.10660271112405</v>
+        <v>135.8763188201614</v>
       </c>
       <c r="AB3" t="n">
-        <v>132.8655378702637</v>
+        <v>185.9119738497828</v>
       </c>
       <c r="AC3" t="n">
-        <v>120.1850374139147</v>
+        <v>168.1687959947059</v>
       </c>
       <c r="AD3" t="n">
-        <v>97106.60271112405</v>
+        <v>135876.3188201614</v>
       </c>
       <c r="AE3" t="n">
-        <v>132865.5378702637</v>
+        <v>185911.9738497828</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.178111259818642e-06</v>
+        <v>5.677463832570788e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.875</v>
       </c>
       <c r="AH3" t="n">
-        <v>120185.0374139147</v>
+        <v>168168.7959947059</v>
       </c>
     </row>
   </sheetData>
